--- a/public/template-excel/lapkeuanganhaji/perubahan_aset_neto.xlsx
+++ b/public/template-excel/lapkeuanganhaji/perubahan_aset_neto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\DESAIN WEB\BPKH\27-1-20\sampel data\lapkeuhaji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBDIR\htdocs\sibpkh\public\template-excel\lapkeuanganhaji\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5ACB90-42D1-4223-AD34-FAF56567407E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92363B06-3264-437F-B9AA-789DB4FECA83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{3E1C13A1-2724-4B40-B071-470050EC9A6E}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>ASET NETO TIDAK TERIKAT</t>
   </si>
@@ -72,14 +74,40 @@
     <t>Uraian</t>
   </si>
   <si>
-    <t>Februari</t>
+    <t>Juni</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <t>Penggunaan Efisiensi Haji Tahun Sebelumnya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +127,43 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -127,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -150,12 +215,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -169,6 +249,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -485,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8FFBD2-C5BE-4DBA-ADE9-FA2B643BCC96}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,159 +602,164 @@
         <v>13</v>
       </c>
       <c r="C1" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
-        <v>3.33333333333333E+16</v>
-      </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>3.33333333333333E+16</v>
+      <c r="B3" s="9">
+        <v>47362429633</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <v>3.33333333333333E+16</v>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
-        <v>3.33333333333333E+16</v>
+      <c r="B5" s="10">
+        <v>47362429633</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
-        <v>3.33333333333333E+16</v>
-      </c>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="5">
-        <v>3.33333333333333E+16</v>
+      <c r="B7" s="9">
+        <v>151307131571</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
-        <v>3.33333333333333E+16</v>
+      <c r="B8" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
-        <v>3.33333333333333E+16</v>
+      <c r="B9" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="5">
-        <v>3.33333333333333E+16</v>
+      <c r="B10" s="10">
+        <f>SUM(B7:B9)</f>
+        <v>151307131571</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5">
-        <v>3.33333333333333E+16</v>
+      <c r="B11" s="10">
+        <f>B10+B5</f>
+        <v>198669561204</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5">
-        <v>3.33333333333333E+16</v>
-      </c>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="5">
-        <v>3.33333333333333E+16</v>
+      <c r="B13" s="9">
+        <v>2101452543300</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="5">
-        <v>3.33333333333333E+16</v>
+      <c r="B14" s="9">
+        <v>3191993430647</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="5">
-        <v>3.33333333333333E+16</v>
+      <c r="B15" s="10">
+        <f>SUM(B13:B14)</f>
+        <v>5293445973947</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="5">
-        <v>3.33333333333333E+16</v>
-      </c>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="5">
-        <v>3.33333333333333E+16</v>
+      <c r="B17" s="10">
+        <v>2088741386755</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="5">
-        <v>3.33333333333333E+16</v>
+      <c r="B18" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
-        <v>3.33333333333333E+16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="10">
+        <f>SUM(B17:B18)</f>
+        <v>2088741386755</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="5">
-        <v>3.33333333333333E+16</v>
+      <c r="B21" s="10">
+        <f>B5+B10+B15+B20</f>
+        <v>7580856921906</v>
       </c>
     </row>
   </sheetData>
